--- a/PCA/Country - EDU data.xlsx
+++ b/PCA/Country - EDU data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rickeyhuang/COMAPproblemF/PCA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rickeyhuang/Desktop/COMAPproblemF/PCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2964FB61-54DA-BF47-937B-B47F89C24713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F68FC2-9BF8-0D4F-B867-B67E07976760}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{B1DA2EA6-0181-42C8-A642-A9C5CCBBBCFA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{77238E7E-B285-4CC8-A976-DA0A4D0F2E36}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{B1DA2EA6-0181-42C8-A642-A9C5CCBBBCFA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -700,8 +700,8 @@
   </sheetPr>
   <dimension ref="A1:M995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:U1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1134,7 +1134,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="3">
-        <v>8202</v>
+        <v>15436</v>
       </c>
       <c r="C11" s="2">
         <v>14.8744186</v>
@@ -17960,6 +17960,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{77238E7E-B285-4CC8-A976-DA0A4D0F2E36}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="B1:B997" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
     <customSheetView guid="{B1DA2EA6-0181-42C8-A642-A9C5CCBBBCFA}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="B1:B997" xr:uid="{00000000-0000-0000-0000-000000000000}">
@@ -18008,10 +18012,6 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{77238E7E-B285-4CC8-A976-DA0A4D0F2E36}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:B997" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PCA/Country - EDU data.xlsx
+++ b/PCA/Country - EDU data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rickeyhuang/Desktop/COMAPproblemF/PCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F68FC2-9BF8-0D4F-B867-B67E07976760}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CE74A1-8E39-574D-B5A3-C522D3EA84CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -701,7 +701,7 @@
   <dimension ref="A1:M995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
